--- a/Annivs.xlsx
+++ b/Annivs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PaulRENOUX\OneDrive - RSM France\Documents\Annivs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8A28AAA-61CD-430E-9816-D4E5F9ED06D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C56F41F-69F6-456A-9B89-81EEC21DA270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="0" windowWidth="28770" windowHeight="16890" xr2:uid="{ADCB189A-0501-4B2A-981F-CEB10D760C66}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{ADCB189A-0501-4B2A-981F-CEB10D760C66}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Emilie</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Elodie</t>
   </si>
   <si>
-    <t>Julien</t>
-  </si>
-  <si>
     <t>Sarah</t>
   </si>
   <si>
@@ -105,6 +102,12 @@
   </si>
   <si>
     <t>DATE NAISSANCE</t>
+  </si>
+  <si>
+    <t>Jocelyn</t>
+  </si>
+  <si>
+    <t>Julien F</t>
   </si>
 </sst>
 </file>
@@ -504,187 +507,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04DF253-05C3-4DB7-B1F6-FA856E5742BE}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2">
-        <v>30215</v>
+      <c r="B2" s="4">
+        <v>27510</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>28268</v>
+        <v>30215</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>34357</v>
+        <v>28268</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2">
-        <v>34790</v>
+        <v>34357</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="2">
-        <v>34917</v>
+        <v>34790</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2">
-        <v>35581</v>
+        <v>34917</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="2">
-        <v>30891</v>
+        <v>35581</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>35291</v>
+        <v>30891</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>33564</v>
+        <v>35291</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>35161</v>
+        <v>33564</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>35218</v>
+        <v>35161</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2">
-        <v>35756</v>
+        <v>35218</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>35756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>35057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>35057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="B16" s="2">
+        <v>36642</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>36642</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="B17" s="2">
         <v>36710</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2">
-        <v>36759</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4">
-        <v>36248</v>
+        <v>14</v>
+      </c>
+      <c r="B18" s="2">
+        <v>36759</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" s="4">
-        <v>37132</v>
+        <v>36248</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4">
-        <v>36763</v>
+        <v>37132</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4">
-        <v>36584</v>
+        <v>36763</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4">
+        <v>36584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="4">
         <v>36720</v>
       </c>
     </row>

--- a/Annivs.xlsx
+++ b/Annivs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PaulRENOUX\OneDrive - RSM France\Documents\Annivs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mbvsisa-my.sharepoint.com/personal/paul_renoux_rsmfrance_fr/Documents/Documents/Annivs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C56F41F-69F6-456A-9B89-81EEC21DA270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{5C56F41F-69F6-456A-9B89-81EEC21DA270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23BFF123-A897-46B1-9E2F-CABF99F04834}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" xr2:uid="{ADCB189A-0501-4B2A-981F-CEB10D760C66}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{ADCB189A-0501-4B2A-981F-CEB10D760C66}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Emilie</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>Julien F</t>
+  </si>
+  <si>
+    <t>Tachafin</t>
+  </si>
+  <si>
+    <t>Raïssa</t>
+  </si>
+  <si>
+    <t>Ornelly</t>
   </si>
 </sst>
 </file>
@@ -131,7 +140,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -154,11 +163,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -173,6 +193,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -507,15 +530,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04DF253-05C3-4DB7-B1F6-FA856E5742BE}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.7265625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -523,181 +550,230 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="4">
         <v>27510</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>30215</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" s="7"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2">
         <v>28268</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" s="7"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B5" s="2">
         <v>34357</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2">
         <v>34790</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" s="7"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2">
         <v>34917</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" s="7"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2">
         <v>35581</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" s="7"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2">
         <v>30891</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" s="7"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2">
         <v>35291</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="2">
         <v>33564</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2">
         <v>35161</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" s="7"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="2">
         <v>35218</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" s="7"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="2">
         <v>35756</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2">
         <v>35057</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" s="7"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="2">
         <v>36642</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B17" s="2">
         <v>36710</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" s="7"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="2">
         <v>36759</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" s="7"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="4">
         <v>36248</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="4">
         <v>37132</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" s="7"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="4">
         <v>36763</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" s="7"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="4">
         <v>36584</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" s="7"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="4">
         <v>36720</v>
       </c>
+      <c r="C23" s="7"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7">
+        <v>37421</v>
+      </c>
+      <c r="C24" s="7"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7">
+        <v>34360</v>
+      </c>
+      <c r="C25" s="7"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="7">
+        <v>36332</v>
+      </c>
+      <c r="C26" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Annivs.xlsx
+++ b/Annivs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mbvsisa-my.sharepoint.com/personal/paul_renoux_rsmfrance_fr/Documents/Documents/Annivs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{5C56F41F-69F6-456A-9B89-81EEC21DA270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23BFF123-A897-46B1-9E2F-CABF99F04834}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{5C56F41F-69F6-456A-9B89-81EEC21DA270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACFDBC99-4454-4728-9F07-40BC8CA6F38A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{ADCB189A-0501-4B2A-981F-CEB10D760C66}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Emilie</t>
   </si>
@@ -117,6 +117,15 @@
   </si>
   <si>
     <t>Ornelly</t>
+  </si>
+  <si>
+    <t>Jean Jacques</t>
+  </si>
+  <si>
+    <t>Thibault</t>
+  </si>
+  <si>
+    <t>Sabina</t>
   </si>
 </sst>
 </file>
@@ -530,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F04DF253-05C3-4DB7-B1F6-FA856E5742BE}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -758,7 +767,7 @@
       <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="7">
@@ -767,13 +776,37 @@
       <c r="C25" s="7"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="7">
         <v>36332</v>
       </c>
       <c r="C26" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="7">
+        <v>32220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="7">
+        <v>37303</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="7">
+        <v>37224</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
